--- a/water-fall/20_設計/10_タスク管理システム_画面・機能_全体_v1.0.xlsx
+++ b/water-fall/20_設計/10_タスク管理システム_画面・機能_全体_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\20_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5B9B1-E5D1-496A-B141-9DE5EAF6BC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B0A05-29D9-42A4-94A8-77715C2BB185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{67B6CA78-3CE2-42D8-B2E6-930FEDCB7716}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -150,18 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>V010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V020</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V030</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -223,6 +211,18 @@
     <rPh sb="5" eb="7">
       <t>メイショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S030</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -404,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2061477" y="8352354"/>
-          <a:ext cx="3289433" cy="3740278"/>
+          <a:off x="2026841" y="7672616"/>
+          <a:ext cx="3228819" cy="3428551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,11 +2514,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
+      <xdr:colOff>74841</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1766952" cy="359815"/>
+    <xdr:ext cx="1760024" cy="359815"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="テキスト ボックス 80">
@@ -2532,8 +2532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="802821" y="8014608"/>
-          <a:ext cx="1766952" cy="359815"/>
+          <a:off x="789217" y="7490733"/>
+          <a:ext cx="1760024" cy="359815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2569,7 +2569,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>V010:</a:t>
+            <a:t>S010:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2582,12 +2582,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176889</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1378254" cy="359815"/>
+    <xdr:ext cx="1371326" cy="359815"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="テキスト ボックス 81">
@@ -2601,8 +2601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1292679" y="2122715"/>
-          <a:ext cx="1378254" cy="359815"/>
+          <a:off x="1163411" y="1939015"/>
+          <a:ext cx="1371326" cy="359815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2646,7 +2646,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>V020:</a:t>
+            <a:t>S020:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -2673,11 +2673,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:colOff>61234</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66671</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1261390" cy="359815"/>
+    <xdr:ext cx="1254462" cy="359815"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="テキスト ボックス 82">
@@ -2691,8 +2691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7960179" y="2148568"/>
-          <a:ext cx="1261390" cy="359815"/>
+          <a:off x="7681234" y="2019297"/>
+          <a:ext cx="1254462" cy="359815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2736,7 +2736,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>V030:</a:t>
+            <a:t>S030:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -3341,14 +3341,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="4" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3382,42 +3382,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3434,9 +3434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8219D-936F-469F-BEE2-6DDDCA5CA043}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -3445,12 +3447,12 @@
     <col min="7" max="7" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -3461,16 +3463,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -3478,18 +3480,18 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="str">
         <f>D4&amp;":"&amp;C4</f>
-        <v>V010:アカウント作成画面</v>
+        <v>S010:アカウント作成画面</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -3497,18 +3499,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="str">
         <f t="shared" ref="G5:G6" si="0">D5&amp;":"&amp;C5</f>
-        <v>V020:ログイン画面</v>
+        <v>S020:ログイン画面</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -3516,18 +3518,18 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>V030:タスク画面</v>
+        <v>S030:タスク画面</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3535,7 +3537,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3543,7 +3545,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3551,7 +3553,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3559,7 +3561,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3577,18 +3579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC4E20-36D4-48CB-A0EF-D13A80763775}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BF18" sqref="BF18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
